--- a/Homeworks/Homework 2/homework2/result.xlsx
+++ b/Homeworks/Homework 2/homework2/result.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Homework 2" r:id="rId3" sheetId="1"/>
+    <sheet name="w = 2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -26,7 +26,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>3</t>
@@ -35,22 +35,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>6</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
@@ -134,18 +128,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -153,18 +147,18 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
